--- a/outputs/fft-d__Bacteria_pruned.xlsx
+++ b/outputs/fft-d__Bacteria_pruned.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="g__Prevotella-LSVM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__C941-LSVM" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,4 +1858,3984 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4652638099672164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.722111669635422</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.9428315168353512</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2466950244880664</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.501252969297654</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.305642018255613</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3655369039268286</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.09476217082115224</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.681571057797873</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.546067174954957</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.447689350673072</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.2846701015300724</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.927926573422726</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.3082438306776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0323306515853139</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4584952739486959</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8617093640733241</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.358714234665039</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.250639142590595</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.898254632846152</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.6103562489347011</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.487326052177814</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.652175858432529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.303242157830807</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.077151986361258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.557347582486015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.284909752128258</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.9247206650939117</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1580129821739132</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.121653155347125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.519664112598635</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1162861544768749</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2048557958123844</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.903822221412172</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.80676297510748</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2323670828615518</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.33439225254007</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.018431376434753</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.012238595285216</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.6487935471141228</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.012250810204891</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.382993923173165</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.346048554345451</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4357529979887383</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.4124299856594541</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.564858397918682</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.475960828373864</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.499054988554586</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.214508269727713</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.254562487231834</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.616760000518917</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.317140314285154</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2948294558985566</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.082709873178388</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.032384760819197</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6166911460309483</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.522294083593848</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.812172450846318</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.598913140660633</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2749648148646359</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.933481445573257</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.687046982557125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.218742340296658</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.550703823309098</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1653526340198729</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.342090576595397</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.265740974754852</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5050814560664352</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.37803679952146</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.514029585622408</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.000279826779317</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.2808268769413744</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.4133057479002195</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.928860921373114</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.218131759959457</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2548299296176823</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.488905718342384</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.582520192926564</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.683247613962338</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9137645660974503</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.9203742605312953</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.934385995447853</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.913229150651716</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.103175120698794</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2581893086125797</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.057796163312523</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.548267346494851</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.06849210034088393</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.016759776284653</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.100406767597674</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.954864236121732</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.808479830600037</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.034174071503171</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.762541821835763</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.783790422702781</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.3274478212607514</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6519252830556469</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.856651705205529</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.225182701357697</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3931686559103703</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3836304486908789</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.353354639392478</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.336905837824363</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6641034949062412</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.6146268303954424</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.841259133034614</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.585652950844514</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.647686375401167</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1082912096316219</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.567519627508848</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.489929256314657</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1801142344737993</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.08569044801315473</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.273504152908094</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.409069043051432</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3160416899428395</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.4330088231646799</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.129049641798298</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.320785698847752</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5862692666219353</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.5638667986681966</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.450998225845296</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.6934570774836093</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.8653515502699216</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5575593574710395</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.022825640296407</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.9861941568138961</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.1763993084358922</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.4113106577933719</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.6924967194202178</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.689139930792864</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7853134108522373</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.08007419102400437</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.491202873190351</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.521361408428962</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3603553287109599</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.7009716722431812</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.296565456909152</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.6185726321952354</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01757701057594535</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.3451609708421891</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.783163944210078</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1.237170962567921</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4443076123399127</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.144996380199</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.410909776303632</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.8611537460686017</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.7476848628796335</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1141158352130239</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.378563313084543</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.554101777067377</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2153212740019443</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.0383950685678488</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.295775920662877</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.005899414621584</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.6271607499328917</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.06653506668590448</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.625574846061673</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.6867619465369242</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.8931213242580267</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.3298210778373242</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.786184169982524</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1.229464902759589</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.6403988463470813</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.3294725757102285</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2.439025256244785</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.134872140144996</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.053790568740559</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.03511657813925639</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.579023430723791</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.464677187881592</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.3752248235326512</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.5631165729359512</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-2.562136148097074</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1.181380275815143</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6329888466421993</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-1.130872404080878</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-3.230429716353765</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.896276325993019</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3252950369844743</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.652843831399644</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.686786963972782</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2489689910353663</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9660220631940706</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-1.14007111781155</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.521824120704264</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1.367467098373094</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4558510896720985</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-1.127386951762641</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.492181908894035</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-2.914689163254214</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.148799879744651</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-1.710725383348898</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.195011321592394</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.278905182903023</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3526868402696409</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1276882690357853</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-2.735528087333716</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.7429862510910402</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.6141012558612318</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6180973520950367</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-3.584512131296898</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.573148709320416</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6092131136492245</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.1063730229072632</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.20399736207996</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.79015037281505</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.4432370779118706</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.8131709993859172</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.698160659086742</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1.615634277880772</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3467359351883972</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.280394182529975</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.825134110373766</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-2.204556859413895</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.248247883150868</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.605684723455204</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.128291789735837</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-2.074546642495417</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.863381627494368</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.215521170919504</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2.47963207425452</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.2422231318851582</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.5688533133609128</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-1.165388473600799</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-3.003228641630696</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.3936153888948073</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.08864155555389162</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-2.844889339990475</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.335956977793717</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.192270227313628</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.233807310607662</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.7156787786530246</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2.237395943003193</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-1.659632174193557</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7084133168325395</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.3407068644776144</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-3.068407597635197</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1.892441504860147</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6927073024564074</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.2155769761972516</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.156568448088783</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.628195724392002</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1632498794738433</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1442433474319752</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-2.530033185474649</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1.369499396447472</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.206516219896051</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.050884866988889</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.84984850006337</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-1.196739959296482</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.1312598063086245</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.159647922975545</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.680828706872913</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-1.994936961604854</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7067301378603252</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.70174870846328</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.208557408279151</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.980194074424619</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7938732340381285</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7688816419487633</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.987940640850521</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-2.602392077120341</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3830225385216194</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.070117586941161</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.220834239271615</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.2623671020800891</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.9913165303816343</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.588059402738596</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.02925866148784</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.5855121945593722</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.9253998654050499</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.2928924071247431</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.948196817538443</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.543291239914883</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.02735616779551359</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-1.027581915092167</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2.033762439925247</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-1.593737462604898</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7097824649286584</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.8306362430077637</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.46453984999054</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-1.452218156496466</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.141457761968806</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-1.04730310903806</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2.19740000693448</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.668250100428849</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.008504122078597437</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-1.151111392457691</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.521369178416856</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.75181782176191</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2886245783846481</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.2681475105485353</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.93398544153833</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-2.369759401240223</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8181959590276213</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.2166731083440822</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-3.554227010051005</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-2.175397185228272</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.312213742681297</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.8270324775288475</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-2.202663735931256</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1.530507170673908</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1566964701119442</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-1.846542971294526</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.7367188374566075</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-1.931805583458469</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.6432357465663532</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.4014809524678106</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-3.344783063215436</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-1.298816927258225</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2666727723033269</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.4383766884506907</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-2.279900847355329</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9534481600334102</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.09584339709712524</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.02008113664669808</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-2.259085147337173</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.436451803758942</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.6910555259076543</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-2.164676920154352</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.925971067918076</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.338172035946021</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7972265397702663</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.5611777493020987</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.260006396929786</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-1.740769571928819</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2826097649381438</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1434027683249696</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-2.678478854356556</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.7335033940737671</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.4003002410775353</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4045074433540711</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.743510310689765</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.583071077021385</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.1093931984557938</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.3760050105835656</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.319614413162262</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.2968423892388212</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.39370280013448</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.08366516519661926</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-2.857489505885878</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.5536197484078826</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.9888493258539695</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1130715897233764</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.106347283209191</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.751012931933557</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.3680332202235976</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.5893174985504229</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.687001547074224</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-1.892100921158966</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.0919994445967781</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4813323446557253</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.128462881880524</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.908942074859958</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.158109213150817</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.6545265566639301</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.750696858267783</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1.017061520914396</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.3659586021691823</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.630963050314703</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.871334590479814</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1.089670615728423</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.8027777323699574</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2571535972259253</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-3.184739555083753</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-1.654363038803703</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.4294288281286204</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.939991072502575</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.655717126529417</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.311833950755989</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.05602844833821674</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-1.27059767505127</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.967410705053508</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.8833661801133205</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.6227464277481226</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8547839987886295</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-2.249284443680873</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-2.070960689693189</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2604911547543021</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.1469414269054125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.941190107972222</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-2.11663956668834</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7180215844379891</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.155817031655773</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.97310870189701</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.06514783473318975</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.9611137546786965</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.273818783298621</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.057671773755271</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.154029509925244</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.246798180014177</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.2223108952854052</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.876804850353782</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-1.624579177208481</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1046513212560687</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.347382605120481</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.984081073870112</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-1.650067093215814</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.05620995747820606</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3429987405429535</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.245390304426298</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.4985752186339907</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.6710186696062862</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.56317401016663</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.105711296891234</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.257334500526977</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.6314715225329461</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3353985103595523</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-2.37625716384124</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-1.592510174000519</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.001670375742384683</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-1.43728760346083</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-2.128654051062012</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.8436613145070188</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.005409295054088992</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.1263569775293398</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.064433198397439</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-2.78170059099557</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.21330313731156</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.1055441204020486</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.522522641999216</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.9647674917748322</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.5071660145872201</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.7581218033561</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.472455068857774</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.7895677964615183</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.7393409792304799</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-1.06435198598873</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-2.279291100640212</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-1.300309944386793</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.3697733090307868</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3343030117381387</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-3.677269849295323</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.106817977694555</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1741500692831784</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.4943463482982188</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.55635639913601</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.109744907133397</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2865198899359109</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.1521022915350524</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.316852795500987</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1.759932959796737</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.457765043178989</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.5142970578138449</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-2.625369718023483</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.7789833333734379</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.2285898574650804</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.3522913453106366</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-2.406901505031453</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1.42761997907655</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.3303890217902608</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.4168201755796338</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.612905825973121</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-1.091421190576801</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.2263411566165655</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.573737698323077</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.18366052228672</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.126695865506504</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.356261726597663</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.362064120277183</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-3.437078861387381</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.09943780514837885</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.1372110823337848</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.9960152842102804</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.939430643302213</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-1.520514963530017</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4207421983927696</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.2776833862479994</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-2.530043960054442</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.966355901894577</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.5326097279277797</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.5009847861465108</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.142189865913251</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.6934117246445904</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1.48373330248324</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.05566764471669061</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.477043437481634</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-2.66146840496198</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.08118857728093037</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-1.42786082364978</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.676125127112239</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.031293868587723</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.2823434906241272</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4025286846013646</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.050594409814712</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-1.72535578065476</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.5142632785143846</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.1370858282505584</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-2.302858555831737</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.283277769198686</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.5624124543495831</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6112813952641944</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.541089198199041</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-2.204339976389158</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.4123594857038432</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-1.087835898722303</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-2.04428959372872</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-1.329822742247489</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2960956722000499</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.1753995411478623</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-2.215525071521236</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-1.660280558177504</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.06961123271837166</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.5456583588207563</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-2.449699207203612</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.5454095158518786</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.5650893227157301</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.989767274889502</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.759361806070763</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.600275145524808</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07725939726785191</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.623885385656219</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.73339572824055</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.8406893229255655</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1805358739060691</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.747991306529039</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.24140133992601</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.7706506159955725</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.019017632497656</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3758327295261784</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.304099485574242</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.7397092952835939</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.5213004936544436</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.166707659373857</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.431332151868757</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.539466102258106</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4607182099908692</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.6292571259164422</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.229796910591796</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.704233939226721</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5395345470357917</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.60134494910824</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.057463859318853</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.089103857322599</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.049007684459339</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.103289657181092</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.634951581795603</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.901298228905684</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2829761391232581</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.722828980615354</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.58419237625313</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.248205585884165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4044780403459515</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.203243859242099</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.580279189793358</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3734338524520791</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.4717324743073753</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.736945878019172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.627123305471986</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.003397967256719703</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.4620100057441223</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.6070869672123934</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.900702986767642</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3019393919013491</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.982003877761304</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.099126283531383</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.707099770401378</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.032298902687293</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.6630989210647562</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.09126850171060907</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.558111672328378</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.044098924395887</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.6133009570362027</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3935133584121436</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.087917726250673</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.6896288524446996</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.9746750869350982</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.656939923595107</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.286579710354554</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.038544289361386</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.04045487736229325</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4041423359006214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.421859687442953</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.6832557184806283</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.6937961775954686</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.041969512093322</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.039658409853399</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.829736433181496</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5599896395575157</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.7602051953948493</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.832220801203228</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.7468951102543008</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.6446798810518566</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.598749877641376</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.091598534713386</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.904630440414095</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.140694960001196</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.109143357681518</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.514419877015661</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.6016464793884766</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.8557389075097579</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.4405971256212481</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.178961624025727</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.4531205886062442</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.620070515312745</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.3891384226532456</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.240313840652677</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.477496072800548</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3847952064066049</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.297197037710822</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.772749325406054</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.6856699514086974</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.133201549552739</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2644228016879401</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.575672181096686</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.099658522041189</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.007830118718467005</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0840948654682494</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.883451626720994</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.629484611709661</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2563670870857018</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.694622802837832</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.919806953041677</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.4909735923492988</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.133669982623753</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.65712368652142</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.819360027954168</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2006667147438275</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.8706537805960273</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.808486247172884</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.297014771966541</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.9281998761828977</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1214893511796476</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.221404395460671</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.7001445904320514</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.80517883417298</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.4872350100404872</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.611041539985154</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.451322054392904</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.081457644482148</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.04353565800193937</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.529325477740065</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.77920136342371</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1834676495354204</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.095600789772774</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.628310011673209</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.061639267280018</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.478144280312062</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.6875281027267706</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1014583944067053</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.912186224205991</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.666299907412621</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.464081721698046</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.4358725851203654</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.159393883139823</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.570034419927522</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8652430227904271</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/fft-d__Bacteria_pruned.xlsx
+++ b/outputs/fft-d__Bacteria_pruned.xlsx
@@ -10,6 +10,8 @@
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="g__Prevotella-LSVM" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="g__C941-LSVM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="f__Lachnospiracea-LSVM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__RC9-LSVM" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5838,4 +5840,4488 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG427</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.022928279689993</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.470820790065474</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.739897582349905</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.200716962742097</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG306</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-3.064070238680514</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.726481728496261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.249171613039085</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.738423744044447</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG702</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.322723844185313</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.595510792576985</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.182494806537834</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.478539872106728</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG263</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.560199552946585</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.084173326822391</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.423341213166823</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.7193590923758477</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG861</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.396576185196849</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.749231178587714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.67642714849311</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9989696371446093</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG402</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-3.024965517274614</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.595243458502469</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.9155965046251771</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9331345789897982</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG565</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.656224705120787</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.680993041668108</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.82808933906932</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.477970377545635</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG609</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4.868318937399629</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.346790318688347</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.664750836098211</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.182418808364531</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG495</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.018919224711134</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.506240026717039</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.013798795257857</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.511288625963666</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG381</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.59823167691613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.641633825376194</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.233244724707305</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.324398054530197</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG096</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.246101125589574</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.393324719760189</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.763853979517418</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.281684906306408</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG557</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-4.924002081522533</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5.495315422735694</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.6703967209862184</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.369589397175409</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG305</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-6.907811033450715</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.805580551015859</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3.770228940556967</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.962849926079912</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG185</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-4.530348017271166</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.520360162295081</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-3.358618303763073</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.723335509948364</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG226</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.650595058096441</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.586450871376884</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.372457718380721</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.917337323669865</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG356</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3.070983428970797</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.021512689331532</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.936602176475671</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.151871360228192</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG223</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2.433574861719449</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.415849165242347</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.039891053974268</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.755809718037499</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG289</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.399400886412327</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5.614672331138628</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.900744099144923</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.190387874345598</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG283</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-6.072723024478169</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.892817106419527</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.870553171509222</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.113982905424896</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG735</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-4.51929109321636</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.229835107529678</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.157069824950561</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.320382661539097</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG028</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.052531126898113</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.213132472218028</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.186419294801021</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.196561563596817</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG170</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.89108729791409</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.002505429136005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.338707146531772</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.059406082953522</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG044</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-5.088497165794703</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.41899246268872</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.224791615408388</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.595577134210578</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG154</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.372089687516294</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.891371323666247</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.98945900826546</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.815349922288876</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG147</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.821799415318034</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.828313728769768</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.634581047837651</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.657776233300726</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG057</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.766682432712694</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.105691866279397</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.974999005190208</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.196572090861363</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG607</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.249823627631068</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.243444408015216</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.492402904936755</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.897534761017377</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG117</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.358850126566686</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.769034047910213</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.891307399664983</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6374143085096609</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG214</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.884732208719686</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.889440394120948</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.153555611372375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.305737753819717</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG688</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.050996339970758</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.101338728718698</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-2.475713179020691</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.500552010500809</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG285</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-3.464744872064989</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-4.123988002951343</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.215055560467316</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.694814618910777</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG015</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-3.330042941370771</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.483520328266614</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-5.985561600674527</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.988377790743225</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG775</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-5.267742209137379</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-3.84509331663582</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.885137267455569</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.478503365582689</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG578</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-4.290539919447673</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.601275046287451</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-2.496725047147203</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.239197785869144</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>hRUG895</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-3.331395887021856</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.67347839922047</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.059945369845876</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.131542297686227</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG091</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-2.063586708579202</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-4.512734452287926</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.850104184764986</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.196795331807172</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG009</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-3.572094033179491</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.474141443481045</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.834037746930525</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.588279958660519</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG596</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-2.285113415957282</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-3.652814119277082</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-2.954047626128471</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.611369299589546</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG595</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-2.765593269927163</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-5.202786785206575</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-2.130557778992561</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.730702796985127</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG829</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-3.085608533093644</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-3.890807588780302</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2.403389854505138</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.950222677143304</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-3.207120113496114</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.904996004416941</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1.78059636151308</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.117216199931986</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>hRUG892</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-1.226836799216837</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-4.042290213896457</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.599358383345354</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.449739328037498</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG531</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-3.38638626327126</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5.09921165022239</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-2.341738811163097</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.090067078509562</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG852</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-2.379903233369185</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3.905932161961297</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-2.232364202288944</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.492184277684586</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG635</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-3.614793973805884</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-5.975567910456228</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-3.18593334107567</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.30620524091709</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG764</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-3.330443961325058</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-4.782659848155683</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1.72740800248511</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.433022268182567</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG145</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.93790821077882</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.070913636871706</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.453604185032431</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.462594785785401</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG724</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-4.037770919552328</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.730830647431802</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-2.971623830927532</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.346303737040598</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG613</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-4.279788861355367</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-5.948898978069488</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-3.372923262231174</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.942344933723255</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>hRUG872</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-2.200410696513525</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-5.636349192705596</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.3455326107734344</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9129423793411253</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG300</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-5.093344536220626</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-4.903820517116254</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.664165087904836</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.986491853018191</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG796</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-4.193014133886177</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-5.323397510167529</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.638569345136386</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.683724173661693</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG811</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-3.029682750712023</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-5.61370517375554</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.8751094781275566</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.44580540029482</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG809</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-3.93695970382246</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.590314588740859</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-2.409731325962518</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.033302950842968</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG268</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-5.269126960657582</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-5.313579749696343</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-3.974953516697262</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.373075069203075</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG336</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.536990640405117</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2.913072318965908</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3.289106945061815</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.871053778913447</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG115</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-3.12095755645152</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.743802335426758</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-4.007485257977933</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.840801493367202</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG871</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-2.406764390183717</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-4.368839467774027</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.748774043740655</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.304844633279306</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG252</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.094607123519783</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-4.277394620582083</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.879827284838376</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.759093371861881</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG830</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-2.581870777489245</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-4.715189910844481</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2.032309828757073</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.922023354528799</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG656</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-3.549867639496747</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-4.403514450469951</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-2.393431346240447</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.692860909497097</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG822</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-4.455069711823397</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-4.979941776052385</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1.499456781489668</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.108528663583388</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG819</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-3.686323976537725</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-5.714454919156295</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.665157565726954</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.891767751952756</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG411</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-2.484774254415944</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-4.246522891526493</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-2.607391160593721</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.768092067333427</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG006</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.469402450058802</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-4.021360115332413</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.569440641836677</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.118606444501916</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG694</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-3.637818973290923</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-5.446548752950929</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-2.491960553993569</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.480667290723581</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG389</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.91449873084826</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-4.620833883521355</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-2.46187898329568</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.399456691835955</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG671</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-3.994100934119538</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-3.80168829644683</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.141455392060951</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.091572902351357</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG824</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-3.375255544179725</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-5.089078277841868</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.444101300598182</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.552642406535382</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG094</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-4.281866874105308</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-3.1959401654776</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-2.751189815296653</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.221073446853452</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG128</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-3.887926182393757</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-3.006946052842713</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-3.266538512000461</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.202577309082646</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG191</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-3.030261910616068</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-3.989482202047892</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-4.462576984628772</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.114896946096269</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG222</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-4.480569139770054</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-3.245937777845391</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-3.072522463143768</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.483171277191118</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG554</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-2.945216863433038</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-6.327331111843618</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.546677222930524</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.399154737211465</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG611</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-1.758942617443837</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-4.931094977504691</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.900802585271526</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4512413309586666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG512</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-2.316605956807731</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-5.240057652499057</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-2.68867195481978</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.967064073900077</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>hRUG868</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-5.231990894521714</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-4.316423686141214</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-1.791786609128671</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.799675523109887</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG850</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-3.740478383865017</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-4.957484799389876</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-2.398793610065537</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.600459557585983</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG588</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-2.497762331899371</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.501117334352745</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-2.28748749213301</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.413823639983591</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>hRUG877</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-2.532536383418959</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-5.20275100252324</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-2.93648459690368</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.453141188741576</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG561</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-3.703179229797694</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-6.024167027093666</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-2.807912209779741</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.542807619182585</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG856</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-4.242692783555711</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-6.699949925319075</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-2.844412750695777</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.455635269391475</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG484</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-4.487575004320335</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-6.947902330017195</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.871204587034334</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.94834710471753</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>hRUG869</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-1.828452216552558</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-3.229969901835607</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.8702121039753935</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8426755009440017</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>hRUG859</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-4.864084698821257</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.838588849785663</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-4.769803260276321</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.040615606400582</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG681</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-3.252825527916154</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-5.610613074217218</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-1.77577418304474</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.729675032622628</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG847</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-3.550250712439205</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-3.969531211808368</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.696421768394441</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.309391669103386</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG743</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-2.51648614180905</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-5.932419469778924</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-1.234195421491019</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9295312971013971</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG655</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-3.29780321361986</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-4.689342687784951</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.821084701908386</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.698474653170003</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>hRUG851</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-5.441772828094903</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-6.157421199513962</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1.224242307277051</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.093036885914445</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG710</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-3.887622676045327</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-4.140815130042051</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-2.223217210325855</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.978385022406474</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG433</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-4.978674817566561</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-2.236374215154584</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-2.963805330691352</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.219522961553831</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG687</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-2.654996638835601</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-5.151365631535342</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-2.604344331764928</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.448556473282374</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>hRUG904</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-3.112051065211101</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-3.383075902583</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-3.304978366897027</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.942115541855723</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG458</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-2.427600970650962</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-5.053972440656149</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-2.351917660516794</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.136315935560127</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG508</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-1.610887845891231</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-2.653762410604921</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-1.18545918951442</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6398852357317866</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG816</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.611815558671864</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-6.070705507009964</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-4.595462164792009</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.56928456485923</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG297</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-5.352790139030168</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-3.109117346980963</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-2.470173744116257</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.258067738562572</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>hRUG884</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-3.162907172190542</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-3.83866114166959</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.2148126183405323</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.9524497612602942</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG709</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-4.088934260046099</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-4.900814301140207</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-1.017161740844753</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.04641218519149</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG335</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-2.714721890066692</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-3.752698244916838</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.961715092764521</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.897623326704294</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG534</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.994704082748012</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-4.894065804995612</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.7923127691716</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.611393785378772</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG692</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-5.070114838638658</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-5.317943663765325</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-1.530079511753445</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.97156796475018</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG231</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-3.769907506203032</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-4.165587794112809</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-3.371411817944265</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.297884675771099</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG683</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-3.138169189863086</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-3.695270909593827</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-2.012005266236584</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9986650407536728</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG646</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-3.763879095425759</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-3.947687741116059</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.8960132475942973</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.438463021816726</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG035</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-2.510725368215234</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-2.046009850505126</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-2.653201199848252</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.521189888616397</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG781</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-3.83398147278551</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-3.693014884177788</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-2.827524320942684</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.54547275381147</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG308</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-3.669864510683711</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-5.162737829725375</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.249438240802143</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.169932476922999</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG617</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-4.329332749119443</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-6.263753262968305</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.854031590496204</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.144266164736763</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>hRUG899</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-3.719166584768323</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-5.230004714086821</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1.808020294513357</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.658835426292266</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG066</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-4.956344028619887</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-6.327971979947314</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-2.163634416530081</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.743682687205865</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG842</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-2.460357501506032</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-5.103042849517305</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1.348271315690871</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.866333025903917</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG151</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-2.972467490746398</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-5.659801691687438</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.2430542372983389</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.445424950710719</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG055</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-1.725790554804939</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-5.03658660975099</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.597618749855589</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.308539696194422</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>hRUG886</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-4.587098024880306</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-3.40044187521864</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-1.478478500829728</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.568951862631122</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG409</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-3.484906862429165</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-5.029166612187416</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-2.118022084751597</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.03080142954422</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG375</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-3.925139559870915</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-5.898039423162009</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-1.546115336935197</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.293119426468697</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG638</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-3.584665831272007</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-2.854210708057243</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1.222497483952432</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.317932160562949</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG211</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-4.015301625317865</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-4.767420479182903</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-1.05095347482478</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.241982910831763</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG274</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-1.424805209802168</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-5.808438533754146</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.2683145873681136</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.2133168374086055</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG477</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-3.338520098336135</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.396833429791279</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-2.091312181224018</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.704870250809768</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>hRUG875</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-3.226500117658643</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-4.690844422030629</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.456825368723627</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.252503294794415</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG391</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-3.832601788548395</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-5.534974206633123</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-3.186851970886063</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.158239129001661</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>hRUG870</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-4.55832638271146</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-4.316281115505973</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.5799556361524378</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.711865951319661</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>hRUG853</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-3.004219961522401</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-5.253571161478829</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-3.262537176196984</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.04926579976232</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG441</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-2.095880306535316</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-2.501598547582139</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-1.944544576948887</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.049152231152073</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG304</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-2.904760190511912</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-5.03955583563555</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-1.451526796350002</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.643678306225277</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG254</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-3.882054148111499</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-7.662529643525485</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-2.755634252689906</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.975405219385</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG227</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-3.949432110504661</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-5.166735947994201</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-3.157590061512506</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.034833178650737</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG584</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-3.58921566458551</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-3.84141530571781</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.748578347366664</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.146857281935676</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG722</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.955410097012584</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.992385011834403</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.347150337921514</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8010338346700143</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG826</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.466599909890098</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.146666828850021</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.782382677602288</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4746825060695789</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG487</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.6449921443244927</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.32748881246502</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.8051028967563428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4608271023977896</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG478</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.179581535898865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.404023647383068</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.042913278596094</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1324590607613998</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG352</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3139837598623686</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.461964844330024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04699533536779632</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6108167527072731</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG629</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.342155433714239</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.699041627272833</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.067107801699848</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7443100139790515</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG523</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.578755277744267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.706522288285306</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.023843614932701</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.1927077569515632</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG510</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.19120191731101</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.305285970026771</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.8696035950151142</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3784194407278653</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG717</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.098625916272424</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.807442026642291</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.629629409869885</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.09428476982057588</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG679</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5090250990673898</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.645610772392259</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.512434569200476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5224925538997214</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG667</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.624630631656161</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.737521412385637</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.08593675000072</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4452091369837328</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG645</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.7430906928657998</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.225420156117571</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1841359590741674</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.4245886778128553</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.518096349203634</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.149551399192221</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1443849192341917</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.052960708074296</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG331</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.191441723549081</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.955887821653066</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.323920004217998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.456278242894326</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG579</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.04897906330149615</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.657640883807492</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.3579089734288268</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.6198489728818555</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG193</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.8036551922240175</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.186759175738407</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.178540824944253</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.8583112665615078</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG583</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.605762822909869</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.780877036260628</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2415281793200728</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.2785272645790438</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG564</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.185994675327196</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.287934723379076</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.280630086239112</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.3696882529479903</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG489</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5105276105373731</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.079384224869732</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.142677087948997</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.9001527785006886</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG345</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6670644335383497</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.843552541033592</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.2132790109480047</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.3760364852768193</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG421</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.016262288899527</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.63108874475041</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.141455130918843</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.7150888286108352</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2143742021538994</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.335269646598224</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.596753934152579</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.428500286089822</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.9262897873942703</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.423957371461319</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.044277411408345</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4395577337244642</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG790</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.0571815280626</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.281187076417446</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.411586585351842</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.09081271463344465</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG470</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.116714517400796</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.834285639402618</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.06408836486516623</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3816864344857062</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG253</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.266828600906848</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.763314188735123</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.09531964404559301</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.386570909861089</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG590</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.945040557674415</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.691944298094185</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.432532141811307</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1018802081078399</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG784</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.032472414400892</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.324735742411256</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.845410856367435</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.09064330879270488</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG818</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.4590517270458997</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.908213309065947</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.07315360078857225</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.176193676287911</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG257</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.091770963535911</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.270511887396616</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.5977806626254076</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.8080279230846177</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG720</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1900349144796842</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.543495598670888</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.817712293783532</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.3716122948499459</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG634</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.8482158071489708</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.545299485833215</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1.044400199534315</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.5271778771316078</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG205</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-2.834883755559427</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-3.011159473651728</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.8969995130485685</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9802412314292543</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG481</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.8159805565307031</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.054987340128637</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.7400969348152869</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.3837644115012334</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG615</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.609156588817763</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3.623590324676934</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.680193119197129</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4230552136521933</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.10483501574356</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-4.008066082370881</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1.750204354428482</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.07180730800628993</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG142</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1407260771866822</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.481215604254914</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.26699344097709</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1691036594435704</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>hRUG909</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.5512051419819542</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-3.220936164901211</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1.806186202248938</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7203626959707765</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG395</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.857077933122319</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.326975392138226</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-2.258595652578302</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.04586715651075279</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG406</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2.416675618178372</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.628295839473574</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.391146311825822</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1777117072309786</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG387</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.584574619197866</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4.068037137807707</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2079240649354586</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.4549854129381609</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG553</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.8776776369183558</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3.278939540538101</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.440154024431616</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3603518404739715</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>hRUG873</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.08567053992155016</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2.687227734756133</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.4917704017475701</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.5872006728270631</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG568</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-1.359875247512663</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3.187364364450627</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1.087702530913144</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5350138639245388</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG707</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.9666100710581583</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-3.948814275568006</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.9167502836278593</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.1197158936906468</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG528</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-2.859617568825282</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.953435537187938</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1.336654027788425</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2698507739233112</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG603</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.2987848098408975</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.41425687060429</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1.192240326420194</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.003788886831805838</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG436</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.7544390757250007</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-3.683379154546878</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.02192088827608152</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.5843102865024811</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG773</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-1.820338694703555</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-3.353328928401018</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.007062703006238</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.2682879172133238</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG619</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-2.318074137406774</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-3.214411931447088</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.7775853225549699</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.5312526271922768</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG386</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-1.355032261351819</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.446611849783126</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.033456862535598</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.6089136793026801</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>p__Firmicutes_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1635921606506199</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-5.046221928660961</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.701954643792762</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.132926545566821</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>